--- a/Index/GP Nr. 10-12.xlsx
+++ b/Index/GP Nr. 10-12.xlsx
@@ -1391,6 +1391,9 @@
       <c r="K20" t="n">
         <v>131.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2331,6 +2334,9 @@
       <c r="K20" t="n">
         <v>143.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3271,6 +3277,9 @@
       <c r="K20" t="n">
         <v>138.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4211,6 +4220,9 @@
       <c r="K20" t="n">
         <v>135.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5151,6 +5163,9 @@
       <c r="K20" t="n">
         <v>135.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6091,6 +6106,9 @@
       <c r="K20" t="n">
         <v>127.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7031,6 +7049,9 @@
       <c r="K20" t="n">
         <v>128</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8101,6 +8122,9 @@
       <c r="K20" t="n">
         <v>123.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9041,6 +9065,9 @@
       <c r="K20" t="n">
         <v>129.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9981,6 +10008,9 @@
       <c r="K20" t="n">
         <v>185.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10921,6 +10951,9 @@
       <c r="K20" t="n">
         <v>188.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>183.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11856,6 +11889,9 @@
       <c r="K20" t="n">
         <v>130</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12796,6 +12832,9 @@
       <c r="K20" t="n">
         <v>216.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>204.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13736,6 +13775,9 @@
       <c r="K20" t="n">
         <v>168.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>169.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14676,6 +14718,9 @@
       <c r="K20" t="n">
         <v>156.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15616,6 +15661,9 @@
       <c r="K20" t="n">
         <v>158.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16556,6 +16604,9 @@
       <c r="K20" t="n">
         <v>167.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>167.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17496,6 +17547,9 @@
       <c r="K20" t="n">
         <v>233.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18436,6 +18490,9 @@
       <c r="K20" t="n">
         <v>159.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19376,6 +19433,9 @@
       <c r="K20" t="n">
         <v>126.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20316,6 +20376,9 @@
       <c r="K20" t="n">
         <v>117.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21256,6 +21319,9 @@
       <c r="K20" t="n">
         <v>154</v>
       </c>
+      <c r="L20" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22196,6 +22262,9 @@
       <c r="K20" t="n">
         <v>137.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23136,6 +23205,9 @@
       <c r="K20" t="n">
         <v>144.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24076,6 +24148,9 @@
       <c r="K20" t="n">
         <v>160.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25016,6 +25091,9 @@
       <c r="K20" t="n">
         <v>202.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25956,6 +26034,9 @@
       <c r="K20" t="n">
         <v>134.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26896,6 +26977,9 @@
       <c r="K20" t="n">
         <v>135.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27836,6 +27920,9 @@
       <c r="K20" t="n">
         <v>132.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28776,6 +28863,9 @@
       <c r="K20" t="n">
         <v>127</v>
       </c>
+      <c r="L20" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29716,6 +29806,9 @@
       <c r="K20" t="n">
         <v>129.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30656,6 +30749,9 @@
       <c r="K20" t="n">
         <v>123.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31596,6 +31692,9 @@
       <c r="K20" t="n">
         <v>157.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32536,6 +32635,9 @@
       <c r="K20" t="n">
         <v>140.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33476,6 +33578,9 @@
       <c r="K20" t="n">
         <v>117.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34416,6 +34521,9 @@
       <c r="K20" t="n">
         <v>128.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35356,6 +35464,9 @@
       <c r="K20" t="n">
         <v>131.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36296,6 +36407,9 @@
       <c r="K20" t="n">
         <v>117.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37236,6 +37350,9 @@
       <c r="K20" t="n">
         <v>121.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38176,6 +38293,9 @@
       <c r="K20" t="n">
         <v>117.9</v>
       </c>
+      <c r="L20" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39376,6 +39496,9 @@
       <c r="K20" t="n">
         <v>125.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40317,6 +40440,9 @@
       <c r="K20" t="n">
         <v>126.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41257,6 +41383,9 @@
       <c r="K20" t="n">
         <v>117.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42197,6 +42326,9 @@
       <c r="K20" t="n">
         <v>159.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43137,6 +43269,9 @@
       <c r="K20" t="n">
         <v>139.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44077,6 +44212,9 @@
       <c r="K20" t="n">
         <v>165.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45017,6 +45155,9 @@
       <c r="K20" t="n">
         <v>136.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45957,6 +46098,9 @@
       <c r="K20" t="n">
         <v>116.8</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46897,6 +47041,9 @@
       <c r="K20" t="n">
         <v>112.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48097,6 +48244,9 @@
       <c r="K20" t="n">
         <v>104</v>
       </c>
+      <c r="L20" t="n">
+        <v>104.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49037,6 +49187,9 @@
       <c r="K20" t="n">
         <v>102</v>
       </c>
+      <c r="L20" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49977,6 +50130,9 @@
       <c r="K20" t="n">
         <v>115.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>115.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50917,6 +51073,9 @@
       <c r="K20" t="n">
         <v>174.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51858,6 +52017,9 @@
       <c r="K20" t="n">
         <v>118.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52798,6 +52960,9 @@
       <c r="K20" t="n">
         <v>120.2</v>
       </c>
+      <c r="L20" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53738,6 +53903,9 @@
       <c r="K20" t="n">
         <v>136.1</v>
       </c>
+      <c r="L20" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54678,6 +54846,9 @@
       <c r="K20" t="n">
         <v>121.4</v>
       </c>
+      <c r="L20" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -55878,6 +56049,9 @@
       <c r="K20" t="n">
         <v>116.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56818,6 +56992,9 @@
       <c r="K20" t="n">
         <v>140.5</v>
       </c>
+      <c r="L20" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57758,6 +57935,9 @@
       <c r="K20" t="n">
         <v>146.3</v>
       </c>
+      <c r="L20" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58698,6 +58878,9 @@
       <c r="K20" t="n">
         <v>152.6</v>
       </c>
+      <c r="L20" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Index/GP Nr. 10-12.xlsx
+++ b/Index/GP Nr. 10-12.xlsx
@@ -1,73 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GP = 10-33" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GP Nr. 10-121" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GP = 1011" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GP = 10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GP = 10 1 - 10 8" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GP = 10 1 - 10 8,11" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="GP = 10 1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="GP = 10 11" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="GP = 10 11 11" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="GP = 10 11 12" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="GP = 10 12" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="GP = 10 13" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="GP = 10 2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="GP = 10 3" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="GP = 10 31" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="GP = 10 32" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="GP = 10 39" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="GP = 10 4" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="GP = 10 41" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="GP = 10 41 2" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="GP = 10 42" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="GP = 10 5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="GP = 10 51" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="GP = 10 51 1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="GP = 10 51 3" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="GP = 10 51 4" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="GP = 10 51 5" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="GP = 10 52" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="GP = 10 6" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="GP = 10 61" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="GP = 10 61 2122" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="GP = 10 62" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="GP = 10 7" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="GP = 10 71" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="GP = 10 71 11" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="GP = 10 72" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="GP = 10 73" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="GP = 10 8" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="GP = 10 81" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="GP = 10 82" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="GP = 10 83" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="GP = 10 83 11" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="GP = 10 83 13" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="GP = 10 83 15" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="GP = 10 84" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="GP = 10 85" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="GP = 10 86" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="GP = 10 89" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="GP = 10 9" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="GP = 10 91" sheetId="50" state="visible" r:id="rId50"/>
-    <sheet name="GP = 10 92" sheetId="51" state="visible" r:id="rId51"/>
-    <sheet name="GP = 11" sheetId="52" state="visible" r:id="rId52"/>
-    <sheet name="GP = 11 01" sheetId="53" state="visible" r:id="rId53"/>
-    <sheet name="GP = 11 02" sheetId="54" state="visible" r:id="rId54"/>
-    <sheet name="GP = 11 02 11" sheetId="55" state="visible" r:id="rId55"/>
-    <sheet name="GP = 11 05" sheetId="56" state="visible" r:id="rId56"/>
-    <sheet name="GP = 11 06" sheetId="57" state="visible" r:id="rId57"/>
-    <sheet name="GP = 11 07" sheetId="58" state="visible" r:id="rId58"/>
-    <sheet name="GP = 12" sheetId="59" state="visible" r:id="rId59"/>
-    <sheet name="GP = 12 00 11 500" sheetId="60" state="visible" r:id="rId60"/>
-    <sheet name="GP = 12 00 19 303" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10-33" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP Nr. 10-121" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 1011" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 1 - 10 8" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 1 - 10 8,11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 11" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 11 11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 11 12" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 13" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 3" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 31" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 32" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 39" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 4" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 41" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 41 2" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 42" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 5" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 51" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 51 1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 51 3" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 51 4" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 51 5" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 52" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 6" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 61" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 61 2122" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 62" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 7" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 71" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 71 11" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 72" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 73" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 8" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 81" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 82" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 83" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 83 11" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 83 13" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 83 15" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 84" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 85" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 86" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 89" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 9" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 91" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 10 92" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 01" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 02" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 02 11" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 05" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 06" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 11 07" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 12" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 12 00 11 500" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GP = 12 00 19 303" sheetId="61" state="visible" r:id="rId61"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1394,6 +1394,12 @@
       <c r="L20" t="n">
         <v>131.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2337,6 +2343,12 @@
       <c r="L20" t="n">
         <v>137.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3280,6 +3292,12 @@
       <c r="L20" t="n">
         <v>138.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4223,6 +4241,12 @@
       <c r="L20" t="n">
         <v>135.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5166,6 +5190,12 @@
       <c r="L20" t="n">
         <v>135.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -6109,6 +6139,12 @@
       <c r="L20" t="n">
         <v>129.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7052,6 +7088,12 @@
       <c r="L20" t="n">
         <v>136.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8125,6 +8167,12 @@
       <c r="L20" t="n">
         <v>124.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9068,6 +9116,12 @@
       <c r="L20" t="n">
         <v>130.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10011,6 +10065,12 @@
       <c r="L20" t="n">
         <v>181.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10954,6 +11014,12 @@
       <c r="L20" t="n">
         <v>183.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>193.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11892,6 +11958,12 @@
       <c r="L20" t="n">
         <v>129.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12835,6 +12907,12 @@
       <c r="L20" t="n">
         <v>204.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>221.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13778,6 +13856,12 @@
       <c r="L20" t="n">
         <v>169.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14721,6 +14805,12 @@
       <c r="L20" t="n">
         <v>158.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15664,6 +15754,12 @@
       <c r="L20" t="n">
         <v>160</v>
       </c>
+      <c r="M20" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16607,6 +16703,12 @@
       <c r="L20" t="n">
         <v>167.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17550,6 +17652,12 @@
       <c r="L20" t="n">
         <v>230</v>
       </c>
+      <c r="M20" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>216.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18493,6 +18601,12 @@
       <c r="L20" t="n">
         <v>165.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19436,6 +19550,12 @@
       <c r="L20" t="n">
         <v>127.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20379,6 +20499,12 @@
       <c r="L20" t="n">
         <v>118.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>122</v>
+      </c>
+      <c r="N20" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -21322,6 +21448,12 @@
       <c r="L20" t="n">
         <v>159</v>
       </c>
+      <c r="M20" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -22265,6 +22397,12 @@
       <c r="L20" t="n">
         <v>137.9</v>
       </c>
+      <c r="M20" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -23208,6 +23346,12 @@
       <c r="L20" t="n">
         <v>149.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -24151,6 +24295,12 @@
       <c r="L20" t="n">
         <v>164.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -25094,6 +25244,12 @@
       <c r="L20" t="n">
         <v>212</v>
       </c>
+      <c r="M20" t="n">
+        <v>217.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26037,6 +26193,12 @@
       <c r="L20" t="n">
         <v>135.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -26980,6 +27142,12 @@
       <c r="L20" t="n">
         <v>136.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -27923,6 +28091,12 @@
       <c r="L20" t="n">
         <v>133.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -28866,6 +29040,12 @@
       <c r="L20" t="n">
         <v>127</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -29809,6 +29989,12 @@
       <c r="L20" t="n">
         <v>131.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -30752,6 +30938,12 @@
       <c r="L20" t="n">
         <v>124.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -31695,6 +31887,12 @@
       <c r="L20" t="n">
         <v>159</v>
       </c>
+      <c r="M20" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32638,6 +32836,12 @@
       <c r="L20" t="n">
         <v>141.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -33581,6 +33785,12 @@
       <c r="L20" t="n">
         <v>118.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34524,6 +34734,12 @@
       <c r="L20" t="n">
         <v>129.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>129</v>
+      </c>
+      <c r="N20" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35467,6 +35683,12 @@
       <c r="L20" t="n">
         <v>133.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>133</v>
+      </c>
+      <c r="N20" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36410,6 +36632,12 @@
       <c r="L20" t="n">
         <v>117.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -37353,6 +37581,12 @@
       <c r="L20" t="n">
         <v>121.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -38296,6 +38530,12 @@
       <c r="L20" t="n">
         <v>119.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39499,6 +39739,12 @@
       <c r="L20" t="n">
         <v>127.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -40443,6 +40689,12 @@
       <c r="L20" t="n">
         <v>126.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -41386,6 +41638,12 @@
       <c r="L20" t="n">
         <v>117</v>
       </c>
+      <c r="M20" t="n">
+        <v>117</v>
+      </c>
+      <c r="N20" t="n">
+        <v>113.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -42329,6 +42587,12 @@
       <c r="L20" t="n">
         <v>159.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -43272,6 +43536,12 @@
       <c r="L20" t="n">
         <v>139.7</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -44215,6 +44485,12 @@
       <c r="L20" t="n">
         <v>164.3</v>
       </c>
+      <c r="M20" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -45158,6 +45434,12 @@
       <c r="L20" t="n">
         <v>139.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -46101,6 +46383,12 @@
       <c r="L20" t="n">
         <v>117.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -47044,6 +47332,12 @@
       <c r="L20" t="n">
         <v>112.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48247,6 +48541,12 @@
       <c r="L20" t="n">
         <v>104.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -49190,6 +49490,12 @@
       <c r="L20" t="n">
         <v>102.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -50133,6 +50439,12 @@
       <c r="L20" t="n">
         <v>115.4</v>
       </c>
+      <c r="M20" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -51076,6 +51388,12 @@
       <c r="L20" t="n">
         <v>173.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52020,6 +52338,12 @@
       <c r="L20" t="n">
         <v>120</v>
       </c>
+      <c r="M20" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -52963,6 +53287,12 @@
       <c r="L20" t="n">
         <v>123.1</v>
       </c>
+      <c r="M20" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -53906,6 +54236,12 @@
       <c r="L20" t="n">
         <v>136.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -54849,6 +55185,12 @@
       <c r="L20" t="n">
         <v>124.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56052,6 +56394,12 @@
       <c r="L20" t="n">
         <v>117.5</v>
       </c>
+      <c r="M20" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -56995,6 +57343,12 @@
       <c r="L20" t="n">
         <v>138.6</v>
       </c>
+      <c r="M20" t="n">
+        <v>140</v>
+      </c>
+      <c r="N20" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -57938,6 +58292,12 @@
       <c r="L20" t="n">
         <v>142</v>
       </c>
+      <c r="M20" t="n">
+        <v>145</v>
+      </c>
+      <c r="N20" t="n">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -58881,6 +59241,12 @@
       <c r="L20" t="n">
         <v>152.2</v>
       </c>
+      <c r="M20" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
